--- a/biology/Zoologie/Andaeschna/Andaeschna.xlsx
+++ b/biology/Zoologie/Andaeschna/Andaeschna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andaeschna est un genre de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andaeschna est un genre de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 janvier 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 janvier 2024) :
 Andaeschna andresi (Rácenis, 1958)
 Andaeschna occidentalis Bota-Sierra, 2019
 Andaeschna rufipes (Ris, 1918)
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Andaeschna De Marmels (d), 1994[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Andaeschna De Marmels (d), 1994.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jürg De Marmels, « A new genus of Aeshnini (Odonata: Aeshnidae) from the Andes, with description of a new species », Insect Systematics &amp; Evolution, Pays-Bas, vol. 25, no 4,‎ 1er janvier 1994, p. 427–438 (ISSN 1399-560X, e-ISSN 1876-312X, DOI 10.1163/187631294X00199).</t>
         </is>
